--- a/va_facility_data_2025-02-20/Glens Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glens%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Glens Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glens%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbf21ee1f644446faabecb18516a75b68"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd93ff66a6f08485295cbb463fa0660f6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9d486f1bb5a4574b91365a88fc277df"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R17693ad2704945b7956bc4936ba5d8b9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra576e2d0bf8547b69d2672bbb8c74fcf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reeed58d61efc47e6ade2ba9313987a01"/>
   </x:sheets>
 </x:workbook>
 </file>
